--- a/pred_ohlcv/54_23/2019-10-14 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-14 FAB ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +737,7 @@
         <v>6.26</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>6.26</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>6.27</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>6.26</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>6.27</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>6.26</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>6.26</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2025,7 +2025,7 @@
         <v>6.7</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -2048,7 +2048,7 @@
         <v>6.7</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -2071,7 +2071,7 @@
         <v>6.7</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -2094,7 +2094,7 @@
         <v>6.6</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -2117,7 +2117,7 @@
         <v>6.55</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -2140,7 +2140,7 @@
         <v>6.69</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>6.68</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>6.55</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -5666,6 +5666,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>